--- a/compilation.xlsx
+++ b/compilation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronny\Documents\MATLAB\matlab.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F034CF1-2A67-4CE6-84BB-A587696AF02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91919A82-6131-4DCC-96F0-F0C6AD7B5C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="2085" windowWidth="15990" windowHeight="10200" xr2:uid="{87641A6A-B424-4F33-B3B8-A60A30866717}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{87641A6A-B424-4F33-B3B8-A60A30866717}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>SNR</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C116FFBE-C8A0-4D05-B81C-CAE0241F9FDA}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,10 +429,7 @@
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -476,34 +473,34 @@
         <v>-15</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C2">
         <v>4096</v>
       </c>
       <c r="D2">
-        <v>0.68600000000000005</v>
+        <v>0.69289999999999996</v>
       </c>
       <c r="E2">
-        <v>0.60199999999999998</v>
+        <v>0.53680000000000005</v>
       </c>
       <c r="F2">
-        <v>0.255</v>
+        <v>0.38679999999999998</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.56510000000000005</v>
       </c>
       <c r="H2">
-        <v>0.53300000000000003</v>
+        <v>0.4778</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.59599999999999997</v>
+        <v>0.6099</v>
       </c>
       <c r="K2">
-        <v>0.11118360252281781</v>
+        <v>0.10947717553502884</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -511,34 +508,34 @@
         <v>-10</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C3">
         <v>4096</v>
       </c>
       <c r="D3">
-        <v>0.873</v>
+        <v>0.87609999999999999</v>
       </c>
       <c r="E3">
-        <v>0.22600000000000001</v>
+        <v>0.54320000000000002</v>
       </c>
       <c r="F3">
-        <v>0.76</v>
+        <v>0.55549999999999999</v>
       </c>
       <c r="G3">
-        <v>0.58199999999999996</v>
+        <v>0.62649999999999995</v>
       </c>
       <c r="H3">
-        <v>0.64600000000000002</v>
+        <v>0.60760000000000003</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6811666666666667</v>
+        <v>0.70148333333333335</v>
       </c>
       <c r="K3">
-        <v>9.0180323960789066E-2</v>
+        <v>8.7787373840242836E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -546,22 +543,22 @@
         <v>-5</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C4">
         <v>4096</v>
       </c>
       <c r="D4">
-        <v>0.95099999999999996</v>
+        <v>0.94530000000000003</v>
       </c>
       <c r="E4">
-        <v>0.83099999999999996</v>
+        <v>0.86029999999999995</v>
       </c>
       <c r="F4">
-        <v>0.86099999999999999</v>
+        <v>0.86839999999999995</v>
       </c>
       <c r="G4">
-        <v>0.98799999999999999</v>
+        <v>0.99450000000000005</v>
       </c>
       <c r="H4">
         <v>0.995</v>
@@ -570,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.93766666666666665</v>
+        <v>0.94391666666666663</v>
       </c>
       <c r="K4">
-        <v>2.6371484801527883E-2</v>
+        <v>2.3706815338445944E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -581,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C5">
         <v>4096</v>
       </c>
       <c r="D5">
-        <v>0.997</v>
+        <v>0.99890000000000001</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.996</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -605,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.99883333333333335</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="K5">
-        <v>8.4913421502880149E-4</v>
+        <v>1.5103295687995025E-4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -616,7 +613,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C6">
         <v>4096</v>
@@ -643,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>6.8325374382177692E-5</v>
+        <v>4.273283099426139E-7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -651,7 +648,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C7">
         <v>4096</v>
@@ -663,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -675,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.99983333333333335</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1.8527214433779744E-4</v>
+        <v>3.2038112637881873E-7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -686,7 +683,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C8">
         <v>4096</v>
@@ -698,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -710,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.99983333333333335</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>2.8606687012762064E-4</v>
+        <v>4.9428778549994079E-7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -721,34 +718,3114 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C9">
         <v>4096</v>
       </c>
       <c r="D9">
-        <v>0.9295714285714286</v>
+        <v>0.93045714285714287</v>
       </c>
       <c r="E9">
-        <v>0.80842857142857139</v>
+        <v>0.84861428571428577</v>
       </c>
       <c r="F9">
-        <v>0.83857142857142852</v>
+        <v>0.83</v>
       </c>
       <c r="G9">
-        <v>0.8671428571428571</v>
+        <v>0.88372857142857142</v>
       </c>
       <c r="H9">
-        <v>0.88200000000000001</v>
+        <v>0.86862857142857142</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.88761904761904764</v>
+        <v>0.89357142857142857</v>
       </c>
       <c r="K9">
-        <v>3.2732029984144387E-2</v>
+        <v>3.1589091381117214E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-15</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
+        <v>4096</v>
+      </c>
+      <c r="D10">
+        <v>0.6925</v>
+      </c>
+      <c r="E10">
+        <v>0.38179999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.53259999999999996</v>
+      </c>
+      <c r="G10">
+        <v>0.52680000000000005</v>
+      </c>
+      <c r="H10">
+        <v>0.51790000000000003</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.60860000000000003</v>
+      </c>
+      <c r="K10">
+        <v>0.10954466317243862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-10</v>
+      </c>
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
+        <v>4096</v>
+      </c>
+      <c r="D11">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="E11">
+        <v>0.53369999999999995</v>
+      </c>
+      <c r="F11">
+        <v>0.56879999999999997</v>
+      </c>
+      <c r="G11">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="H11">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.70198333333333329</v>
+      </c>
+      <c r="K11">
+        <v>8.7822877419081236E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-5</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>4096</v>
+      </c>
+      <c r="D12">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="E12">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.94371666666666665</v>
+      </c>
+      <c r="K12">
+        <v>2.3710308889307873E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>4096</v>
+      </c>
+      <c r="D13">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K13">
+        <v>1.6167191625098131E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>10000</v>
+      </c>
+      <c r="C14">
+        <v>4096</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1.3989059384857889E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>10000</v>
+      </c>
+      <c r="C15">
+        <v>4096</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>3.1559708971131584E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>10000</v>
+      </c>
+      <c r="C16">
+        <v>4096</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>7.7162322946666882E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17">
+        <v>4096</v>
+      </c>
+      <c r="D17">
+        <v>0.93014285714285716</v>
+      </c>
+      <c r="E17">
+        <v>0.8263571428571429</v>
+      </c>
+      <c r="F17">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="G17">
+        <v>0.88081428571428566</v>
+      </c>
+      <c r="H17">
+        <v>0.87165714285714291</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.89342857142857146</v>
+      </c>
+      <c r="K17">
+        <v>3.1605821215427481E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-15</v>
+      </c>
+      <c r="B18">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>4096</v>
+      </c>
+      <c r="D18">
+        <v>0.6996</v>
+      </c>
+      <c r="E18">
+        <v>0.55089999999999995</v>
+      </c>
+      <c r="F18">
+        <v>0.36030000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.55989999999999995</v>
+      </c>
+      <c r="H18">
+        <v>0.48720000000000002</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.60965000000000003</v>
+      </c>
+      <c r="K18">
+        <v>0.1095529262614834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-10</v>
+      </c>
+      <c r="B19">
+        <v>10000</v>
+      </c>
+      <c r="C19">
+        <v>4096</v>
+      </c>
+      <c r="D19">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="E19">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.55859999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.63729999999999998</v>
+      </c>
+      <c r="H19">
+        <v>0.59079999999999999</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.70121666666666671</v>
+      </c>
+      <c r="K19">
+        <v>8.7875438783018803E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-5</v>
+      </c>
+      <c r="B20">
+        <v>10000</v>
+      </c>
+      <c r="C20">
+        <v>4096</v>
+      </c>
+      <c r="D20">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="F20">
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="G20">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="H20">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.94401666666666662</v>
+      </c>
+      <c r="K20">
+        <v>2.3699896796424397E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10000</v>
+      </c>
+      <c r="C21">
+        <v>4096</v>
+      </c>
+      <c r="D21">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.999</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="K21">
+        <v>1.9351122923461379E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>10000</v>
+      </c>
+      <c r="C22">
+        <v>4096</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>6.1712321413138193E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>10000</v>
+      </c>
+      <c r="C23">
+        <v>4096</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>2.7468243463257703E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>10000</v>
+      </c>
+      <c r="C24">
+        <v>4096</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1.1443751319499224E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>10000</v>
+      </c>
+      <c r="C25">
+        <v>4096</v>
+      </c>
+      <c r="D25">
+        <v>0.93142857142857138</v>
+      </c>
+      <c r="E25">
+        <v>0.85198571428571424</v>
+      </c>
+      <c r="F25">
+        <v>0.82547142857142852</v>
+      </c>
+      <c r="G25">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="H25">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.89349761904761904</v>
+      </c>
+      <c r="K25">
+        <v>3.1617687035848843E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-15</v>
+      </c>
+      <c r="B26">
+        <v>10000</v>
+      </c>
+      <c r="C26">
+        <v>4096</v>
+      </c>
+      <c r="D26">
+        <v>0.69969999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.55740000000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.60821666666666663</v>
+      </c>
+      <c r="K26">
+        <v>0.1095480174673456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-10</v>
+      </c>
+      <c r="B27">
+        <v>10000</v>
+      </c>
+      <c r="C27">
+        <v>4096</v>
+      </c>
+      <c r="D27">
+        <v>0.87809999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.54749999999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.5444</v>
+      </c>
+      <c r="G27">
+        <v>0.6351</v>
+      </c>
+      <c r="H27">
+        <v>0.59560000000000002</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.70011666666666672</v>
+      </c>
+      <c r="K27">
+        <v>8.7883565211638856E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-5</v>
+      </c>
+      <c r="B28">
+        <v>10000</v>
+      </c>
+      <c r="C28">
+        <v>4096</v>
+      </c>
+      <c r="D28">
+        <v>0.94569999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="F28">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="G28">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="H28">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.94366666666666665</v>
+      </c>
+      <c r="K28">
+        <v>2.3754196755347633E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>10000</v>
+      </c>
+      <c r="C29">
+        <v>4096</v>
+      </c>
+      <c r="D29">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.9997166666666667</v>
+      </c>
+      <c r="K29">
+        <v>1.806835763922769E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>10000</v>
+      </c>
+      <c r="C30">
+        <v>4096</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>4.301750962893076E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>10000</v>
+      </c>
+      <c r="C31">
+        <v>4096</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>2.839154178487797E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+      <c r="C32">
+        <v>4096</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1.1753168628517361E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>10000</v>
+      </c>
+      <c r="C33">
+        <v>4096</v>
+      </c>
+      <c r="D33">
+        <v>0.93175714285714284</v>
+      </c>
+      <c r="E33">
+        <v>0.83688571428571423</v>
+      </c>
+      <c r="F33">
+        <v>0.83805714285714283</v>
+      </c>
+      <c r="G33">
+        <v>0.88387142857142853</v>
+      </c>
+      <c r="H33">
+        <v>0.86804285714285712</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0.89310238095238093</v>
+      </c>
+      <c r="K33">
+        <v>3.1624050345442502E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-15</v>
+      </c>
+      <c r="B34">
+        <v>10000</v>
+      </c>
+      <c r="C34">
+        <v>4096</v>
+      </c>
+      <c r="D34">
+        <v>0.69969999999999999</v>
+      </c>
+      <c r="E34">
+        <v>0.44319999999999998</v>
+      </c>
+      <c r="F34">
+        <v>0.46729999999999999</v>
+      </c>
+      <c r="G34">
+        <v>0.54320000000000002</v>
+      </c>
+      <c r="H34">
+        <v>0.50319999999999998</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0.60943333333333338</v>
+      </c>
+      <c r="K34">
+        <v>0.10968847418127277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-10</v>
+      </c>
+      <c r="B35">
+        <v>10000</v>
+      </c>
+      <c r="C35">
+        <v>4096</v>
+      </c>
+      <c r="D35">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="E35">
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="F35">
+        <v>0.59</v>
+      </c>
+      <c r="G35">
+        <v>0.62719999999999998</v>
+      </c>
+      <c r="H35">
+        <v>0.6018</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0.70030000000000003</v>
+      </c>
+      <c r="K35">
+        <v>8.8033051502377446E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-5</v>
+      </c>
+      <c r="B36">
+        <v>10000</v>
+      </c>
+      <c r="C36">
+        <v>4096</v>
+      </c>
+      <c r="D36">
+        <v>0.94610000000000005</v>
+      </c>
+      <c r="E36">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="F36">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="G36">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H36">
+        <v>0.995</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="K36">
+        <v>2.3779791750974076E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>10000</v>
+      </c>
+      <c r="C37">
+        <v>4096</v>
+      </c>
+      <c r="D37">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0.99956666666666671</v>
+      </c>
+      <c r="K37">
+        <v>2.0016942776926067E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>10000</v>
+      </c>
+      <c r="C38">
+        <v>4096</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1.9444166063837189E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>10000</v>
+      </c>
+      <c r="C39">
+        <v>4096</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>7.3651569708751337E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>10000</v>
+      </c>
+      <c r="C40">
+        <v>4096</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1.9773638641385459E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>10000</v>
+      </c>
+      <c r="C41">
+        <v>4096</v>
+      </c>
+      <c r="D41">
+        <v>0.93147142857142862</v>
+      </c>
+      <c r="E41">
+        <v>0.83104285714285719</v>
+      </c>
+      <c r="F41">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="G41">
+        <v>0.88062857142857143</v>
+      </c>
+      <c r="H41">
+        <v>0.87142857142857144</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0.89332857142857147</v>
+      </c>
+      <c r="K41">
+        <v>3.1672056454801888E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-15</v>
+      </c>
+      <c r="B42">
+        <v>10000</v>
+      </c>
+      <c r="C42">
+        <v>4096</v>
+      </c>
+      <c r="D42">
+        <v>0.69630000000000003</v>
+      </c>
+      <c r="E42">
+        <v>0.47989999999999999</v>
+      </c>
+      <c r="F42">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="G42">
+        <v>0.6331</v>
+      </c>
+      <c r="H42">
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0.60836666666666661</v>
+      </c>
+      <c r="K42">
+        <v>0.10980065038675028</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-10</v>
+      </c>
+      <c r="B43">
+        <v>10000</v>
+      </c>
+      <c r="C43">
+        <v>4096</v>
+      </c>
+      <c r="D43">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="E43">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="F43">
+        <v>0.59209999999999996</v>
+      </c>
+      <c r="G43">
+        <v>0.57869999999999999</v>
+      </c>
+      <c r="H43">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="K43">
+        <v>8.8235481154117099E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-5</v>
+      </c>
+      <c r="B44">
+        <v>10000</v>
+      </c>
+      <c r="C44">
+        <v>4096</v>
+      </c>
+      <c r="D44">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E44">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="F44">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="G44">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="H44">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0.94356666666666666</v>
+      </c>
+      <c r="K44">
+        <v>2.3799465381148199E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>10000</v>
+      </c>
+      <c r="C45">
+        <v>4096</v>
+      </c>
+      <c r="D45">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K45">
+        <v>1.9048514304082577E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>10000</v>
+      </c>
+      <c r="C46">
+        <v>4096</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>2.4213321746377028E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>10000</v>
+      </c>
+      <c r="C47">
+        <v>4096</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>9.3219553666318747E-7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>10000</v>
+      </c>
+      <c r="C48">
+        <v>4096</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2.5161629691916818E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>10000</v>
+      </c>
+      <c r="C49">
+        <v>4096</v>
+      </c>
+      <c r="D49">
+        <v>0.93069999999999997</v>
+      </c>
+      <c r="E49">
+        <v>0.83622857142857143</v>
+      </c>
+      <c r="F49">
+        <v>0.84071428571428575</v>
+      </c>
+      <c r="G49">
+        <v>0.88665714285714281</v>
+      </c>
+      <c r="H49">
+        <v>0.86535714285714282</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0.89327619047619045</v>
+      </c>
+      <c r="K49">
+        <v>3.1718850250819525E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-15</v>
+      </c>
+      <c r="B50">
+        <v>10000</v>
+      </c>
+      <c r="C50">
+        <v>4096</v>
+      </c>
+      <c r="D50">
+        <v>0.70150000000000001</v>
+      </c>
+      <c r="E50">
+        <v>0.1236</v>
+      </c>
+      <c r="F50">
+        <v>0.77569999999999995</v>
+      </c>
+      <c r="G50">
+        <v>0.6069</v>
+      </c>
+      <c r="H50">
+        <v>0.436</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0.60728333333333329</v>
+      </c>
+      <c r="K50">
+        <v>0.10982443819657672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-10</v>
+      </c>
+      <c r="B51">
+        <v>10000</v>
+      </c>
+      <c r="C51">
+        <v>4096</v>
+      </c>
+      <c r="D51">
+        <v>0.87690000000000001</v>
+      </c>
+      <c r="E51">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="F51">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="G51">
+        <v>0.57310000000000005</v>
+      </c>
+      <c r="H51">
+        <v>0.65669999999999995</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0.70048333333333335</v>
+      </c>
+      <c r="K51">
+        <v>8.8327793744477259E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-5</v>
+      </c>
+      <c r="B52">
+        <v>10000</v>
+      </c>
+      <c r="C52">
+        <v>4096</v>
+      </c>
+      <c r="D52">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="E52">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="F52">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="G52">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="H52">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0.94336666666666669</v>
+      </c>
+      <c r="K52">
+        <v>2.3836006938048774E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>10000</v>
+      </c>
+      <c r="C53">
+        <v>4096</v>
+      </c>
+      <c r="D53">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0.99951666666666672</v>
+      </c>
+      <c r="K53">
+        <v>2.7990165245776494E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>10000</v>
+      </c>
+      <c r="C54">
+        <v>4096</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>2.0195139273584403E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>10000</v>
+      </c>
+      <c r="C55">
+        <v>4096</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1.2306743487901869E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>15</v>
+      </c>
+      <c r="B56">
+        <v>10000</v>
+      </c>
+      <c r="C56">
+        <v>4096</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>3.4803557918154865E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>10000</v>
+      </c>
+      <c r="C57">
+        <v>4096</v>
+      </c>
+      <c r="D57">
+        <v>0.93177142857142858</v>
+      </c>
+      <c r="E57">
+        <v>0.79604285714285716</v>
+      </c>
+      <c r="F57">
+        <v>0.8781714285714286</v>
+      </c>
+      <c r="G57">
+        <v>0.88205714285714287</v>
+      </c>
+      <c r="H57">
+        <v>0.86965714285714291</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0.89295000000000002</v>
+      </c>
+      <c r="K57">
+        <v>3.1753553010804139E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-15</v>
+      </c>
+      <c r="B58">
+        <v>10000</v>
+      </c>
+      <c r="C58">
+        <v>4096</v>
+      </c>
+      <c r="D58">
+        <v>0.70340000000000003</v>
+      </c>
+      <c r="E58">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="F58">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="G58">
+        <v>0.60540000000000005</v>
+      </c>
+      <c r="H58">
+        <v>0.437</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0.60761666666666669</v>
+      </c>
+      <c r="K58">
+        <v>0.1098224080917779</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-10</v>
+      </c>
+      <c r="B59">
+        <v>10000</v>
+      </c>
+      <c r="C59">
+        <v>4096</v>
+      </c>
+      <c r="D59">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="E59">
+        <v>0.435</v>
+      </c>
+      <c r="F59">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="G59">
+        <v>0.56079999999999997</v>
+      </c>
+      <c r="H59">
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0.69708333333333339</v>
+      </c>
+      <c r="K59">
+        <v>8.8373249718581737E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-5</v>
+      </c>
+      <c r="B60">
+        <v>10000</v>
+      </c>
+      <c r="C60">
+        <v>4096</v>
+      </c>
+      <c r="D60">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="E60">
+        <v>0.87</v>
+      </c>
+      <c r="F60">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="G60">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="H60">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0.94341666666666668</v>
+      </c>
+      <c r="K60">
+        <v>2.3850790589182699E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>10000</v>
+      </c>
+      <c r="C61">
+        <v>4096</v>
+      </c>
+      <c r="D61">
+        <v>0.999</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0.99968333333333337</v>
+      </c>
+      <c r="K61">
+        <v>2.2279508960544603E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>10000</v>
+      </c>
+      <c r="C62">
+        <v>4096</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1.5715901124602574E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>10000</v>
+      </c>
+      <c r="C63">
+        <v>4096</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2.4124974380127364E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>15</v>
+      </c>
+      <c r="B64">
+        <v>10000</v>
+      </c>
+      <c r="C64">
+        <v>4096</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>3.9586175369775452E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>10000</v>
+      </c>
+      <c r="C65">
+        <v>4096</v>
+      </c>
+      <c r="D65">
+        <v>0.93221428571428566</v>
+      </c>
+      <c r="E65">
+        <v>0.80730000000000002</v>
+      </c>
+      <c r="F65">
+        <v>0.86447142857142856</v>
+      </c>
+      <c r="G65">
+        <v>0.87995714285714288</v>
+      </c>
+      <c r="H65">
+        <v>0.87131428571428571</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0.89254285714285719</v>
+      </c>
+      <c r="K65">
+        <v>3.1753883742033556E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-15</v>
+      </c>
+      <c r="B66">
+        <v>10000</v>
+      </c>
+      <c r="C66">
+        <v>4096</v>
+      </c>
+      <c r="D66">
+        <v>0.69810000000000005</v>
+      </c>
+      <c r="E66">
+        <v>0.35360000000000003</v>
+      </c>
+      <c r="F66">
+        <v>0.56430000000000002</v>
+      </c>
+      <c r="G66">
+        <v>0.57669999999999999</v>
+      </c>
+      <c r="H66">
+        <v>0.46870000000000001</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0.61023333333333329</v>
+      </c>
+      <c r="K66">
+        <v>0.10986107333115079</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-10</v>
+      </c>
+      <c r="B67">
+        <v>10000</v>
+      </c>
+      <c r="C67">
+        <v>4096</v>
+      </c>
+      <c r="D67">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="E67">
+        <v>0.58260000000000001</v>
+      </c>
+      <c r="F67">
+        <v>0.50490000000000002</v>
+      </c>
+      <c r="G67">
+        <v>0.59530000000000005</v>
+      </c>
+      <c r="H67">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0.6988833333333333</v>
+      </c>
+      <c r="K67">
+        <v>8.8430446284027575E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-5</v>
+      </c>
+      <c r="B68">
+        <v>10000</v>
+      </c>
+      <c r="C68">
+        <v>4096</v>
+      </c>
+      <c r="D68">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E68">
+        <v>0.86880000000000002</v>
+      </c>
+      <c r="F68">
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="G68">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H68">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0.94353333333333333</v>
+      </c>
+      <c r="K68">
+        <v>2.3926083627245291E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>10000</v>
+      </c>
+      <c r="C69">
+        <v>4096</v>
+      </c>
+      <c r="D69">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="E69">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F69">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0.99941666666666662</v>
+      </c>
+      <c r="K69">
+        <v>2.9924516942101532E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>10000</v>
+      </c>
+      <c r="C70">
+        <v>4096</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>6.259562819439268E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <v>10000</v>
+      </c>
+      <c r="C71">
+        <v>4096</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>4.454466676001108E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>15</v>
+      </c>
+      <c r="B72">
+        <v>10000</v>
+      </c>
+      <c r="C72">
+        <v>4096</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>4.8096434443431332E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>10000</v>
+      </c>
+      <c r="C73">
+        <v>4096</v>
+      </c>
+      <c r="D73">
+        <v>0.93141428571428575</v>
+      </c>
+      <c r="E73">
+        <v>0.82927142857142855</v>
+      </c>
+      <c r="F73">
+        <v>0.8466285714285714</v>
+      </c>
+      <c r="G73">
+        <v>0.88085714285714289</v>
+      </c>
+      <c r="H73">
+        <v>0.87074285714285715</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0.89315238095238092</v>
+      </c>
+      <c r="K73">
+        <v>3.1790338869254871E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-15</v>
+      </c>
+      <c r="B74">
+        <v>10000</v>
+      </c>
+      <c r="C74">
+        <v>4096</v>
+      </c>
+      <c r="D74">
+        <v>0.69869999999999999</v>
+      </c>
+      <c r="E74">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="F74">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="G74">
+        <v>0.56169999999999998</v>
+      </c>
+      <c r="H74">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0.60981666666666667</v>
+      </c>
+      <c r="K74">
+        <v>0.11001088591171106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-10</v>
+      </c>
+      <c r="B75">
+        <v>10000</v>
+      </c>
+      <c r="C75">
+        <v>4096</v>
+      </c>
+      <c r="D75">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="E75">
+        <v>0.60219999999999996</v>
+      </c>
+      <c r="F75">
+        <v>0.4551</v>
+      </c>
+      <c r="G75">
+        <v>0.55989999999999995</v>
+      </c>
+      <c r="H75">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0.69384999999999997</v>
+      </c>
+      <c r="K75">
+        <v>8.879524469689988E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-5</v>
+      </c>
+      <c r="B76">
+        <v>10000</v>
+      </c>
+      <c r="C76">
+        <v>4096</v>
+      </c>
+      <c r="D76">
+        <v>0.94510000000000005</v>
+      </c>
+      <c r="E76">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="F76">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="G76">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="H76">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0.94361666666666666</v>
+      </c>
+      <c r="K76">
+        <v>2.3995240612080363E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>10000</v>
+      </c>
+      <c r="C77">
+        <v>4096</v>
+      </c>
+      <c r="D77">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="E77">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F77">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0.99965000000000004</v>
+      </c>
+      <c r="K77">
+        <v>1.8091522666308321E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>10000</v>
+      </c>
+      <c r="C78">
+        <v>4096</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>3.7802465608780743E-6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>10</v>
+      </c>
+      <c r="B79">
+        <v>10000</v>
+      </c>
+      <c r="C79">
+        <v>4096</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>3.7252172689169406E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <v>10000</v>
+      </c>
+      <c r="C80">
+        <v>4096</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>5.3001302735167785E-6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>10000</v>
+      </c>
+      <c r="C81">
+        <v>4096</v>
+      </c>
+      <c r="D81">
+        <v>0.93169999999999997</v>
+      </c>
+      <c r="E81">
+        <v>0.83478571428571424</v>
+      </c>
+      <c r="F81">
+        <v>0.83674285714285712</v>
+      </c>
+      <c r="G81">
+        <v>0.87372857142857141</v>
+      </c>
+      <c r="H81">
+        <v>0.87755714285714281</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0.89241904761904767</v>
+      </c>
+      <c r="K81">
+        <v>3.1856441720208246E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>-15</v>
+      </c>
+      <c r="B82">
+        <v>10000</v>
+      </c>
+      <c r="C82">
+        <v>4096</v>
+      </c>
+      <c r="D82">
+        <v>0.6855</v>
+      </c>
+      <c r="E82">
+        <v>0.39750000000000002</v>
+      </c>
+      <c r="F82">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="G82">
+        <v>0.57830000000000004</v>
+      </c>
+      <c r="H82">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="I82">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="J82">
+        <v>0.60636666666666672</v>
+      </c>
+      <c r="K82">
+        <v>0.1120797303552481</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-10</v>
+      </c>
+      <c r="B83">
+        <v>10000</v>
+      </c>
+      <c r="C83">
+        <v>4096</v>
+      </c>
+      <c r="D83">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="E83">
+        <v>0.57569999999999999</v>
+      </c>
+      <c r="F83">
+        <v>0.47589999999999999</v>
+      </c>
+      <c r="G83">
+        <v>0.57389999999999997</v>
+      </c>
+      <c r="H83">
+        <v>0.63729999999999998</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0.68928333333333336</v>
+      </c>
+      <c r="K83">
+        <v>8.9433433064573159E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-5</v>
+      </c>
+      <c r="B84">
+        <v>10000</v>
+      </c>
+      <c r="C84">
+        <v>4096</v>
+      </c>
+      <c r="D84">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="E84">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="F84">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="G84">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="H84">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0.94205000000000005</v>
+      </c>
+      <c r="K84">
+        <v>2.673599020948117E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>10000</v>
+      </c>
+      <c r="C85">
+        <v>4096</v>
+      </c>
+      <c r="D85">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0.99906666666666666</v>
+      </c>
+      <c r="K85">
+        <v>4.6077502101588675E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>10000</v>
+      </c>
+      <c r="C86">
+        <v>4096</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1.7064878807564881E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>10000</v>
+      </c>
+      <c r="C87">
+        <v>4096</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>2.777934581402101E-6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>15</v>
+      </c>
+      <c r="B88">
+        <v>10000</v>
+      </c>
+      <c r="C88">
+        <v>4096</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>7.02227305703547E-6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>10000</v>
+      </c>
+      <c r="C89">
+        <v>4096</v>
+      </c>
+      <c r="D89">
+        <v>0.92875714285714284</v>
+      </c>
+      <c r="E89">
+        <v>0.83412857142857144</v>
+      </c>
+      <c r="F89">
+        <v>0.83482857142857148</v>
+      </c>
+      <c r="G89">
+        <v>0.87747142857142857</v>
+      </c>
+      <c r="H89">
+        <v>0.87062857142857142</v>
+      </c>
+      <c r="I89">
+        <v>0.99998571428571426</v>
+      </c>
+      <c r="J89">
+        <v>0.89096666666666668</v>
+      </c>
+      <c r="K89">
+        <v>3.2676684819537657E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>-15</v>
+      </c>
+      <c r="B90">
+        <v>10000</v>
+      </c>
+      <c r="C90">
+        <v>4096</v>
+      </c>
+      <c r="D90">
+        <v>0.64939999999999998</v>
+      </c>
+      <c r="E90">
+        <v>0.66279999999999994</v>
+      </c>
+      <c r="F90">
+        <v>0.2772</v>
+      </c>
+      <c r="G90">
+        <v>0.63560000000000005</v>
+      </c>
+      <c r="H90">
+        <v>0.40050000000000002</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0.60424999999999995</v>
+      </c>
+      <c r="K90">
+        <v>0.11507337331514811</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-10</v>
+      </c>
+      <c r="B91">
+        <v>10000</v>
+      </c>
+      <c r="C91">
+        <v>4096</v>
+      </c>
+      <c r="D91">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="E91">
+        <v>0.68540000000000001</v>
+      </c>
+      <c r="F91">
+        <v>0.377</v>
+      </c>
+      <c r="G91">
+        <v>0.44829999999999998</v>
+      </c>
+      <c r="H91">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0.68691666666666662</v>
+      </c>
+      <c r="K91">
+        <v>9.0953071101018093E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>-5</v>
+      </c>
+      <c r="B92">
+        <v>10000</v>
+      </c>
+      <c r="C92">
+        <v>4096</v>
+      </c>
+      <c r="D92">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="E92">
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="F92">
+        <v>0.76759999999999995</v>
+      </c>
+      <c r="G92">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="H92">
+        <v>0.9819</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0.90834999999999999</v>
+      </c>
+      <c r="K92">
+        <v>3.9580412930069919E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>10000</v>
+      </c>
+      <c r="C93">
+        <v>4096</v>
+      </c>
+      <c r="D93">
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="E93">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F93">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0.99856666666666671</v>
+      </c>
+      <c r="K93">
+        <v>1.0569553089160599E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>10000</v>
+      </c>
+      <c r="C94">
+        <v>4096</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>5.1322135235391056E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>10</v>
+      </c>
+      <c r="B95">
+        <v>10000</v>
+      </c>
+      <c r="C95">
+        <v>4096</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>4.023904821913913E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>10000</v>
+      </c>
+      <c r="C96">
+        <v>4096</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0.99998333333333334</v>
+      </c>
+      <c r="K96">
+        <v>6.1143198253762345E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>10000</v>
+      </c>
+      <c r="C97">
+        <v>4096</v>
+      </c>
+      <c r="D97">
+        <v>0.91941428571428574</v>
+      </c>
+      <c r="E97">
+        <v>0.87591428571428576</v>
+      </c>
+      <c r="F97">
+        <v>0.77421428571428574</v>
+      </c>
+      <c r="G97">
+        <v>0.8670714285714286</v>
+      </c>
+      <c r="H97">
+        <v>0.87601428571428575</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0.88543809523809525</v>
+      </c>
+      <c r="K97">
+        <v>3.5259502433837291E-2</v>
       </c>
     </row>
   </sheetData>
